--- a/data/pca/factorExposure/factorExposure_2012-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-13.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01683467745154436</v>
+        <v>-0.02177195387969296</v>
       </c>
       <c r="C2">
-        <v>0.02901031735732942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02432764344696169</v>
+      </c>
+      <c r="D2">
+        <v>-0.001405176672068043</v>
+      </c>
+      <c r="E2">
+        <v>0.02742766668219875</v>
+      </c>
+      <c r="F2">
+        <v>-0.004997675328037549</v>
+      </c>
+      <c r="G2">
+        <v>0.003255214894914386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0680304541507601</v>
+        <v>-0.07863694199009473</v>
       </c>
       <c r="C4">
-        <v>0.06337153336417921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04125750031561897</v>
+      </c>
+      <c r="D4">
+        <v>0.06989729726084977</v>
+      </c>
+      <c r="E4">
+        <v>0.001361548219276096</v>
+      </c>
+      <c r="F4">
+        <v>-0.03319657012886868</v>
+      </c>
+      <c r="G4">
+        <v>-0.009795548466247294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09737847615379493</v>
+        <v>-0.1154780699863172</v>
       </c>
       <c r="C6">
-        <v>0.0695280144085641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04217293886119631</v>
+      </c>
+      <c r="D6">
+        <v>0.01128148761212713</v>
+      </c>
+      <c r="E6">
+        <v>-0.002911347573377923</v>
+      </c>
+      <c r="F6">
+        <v>-0.05060428232822799</v>
+      </c>
+      <c r="G6">
+        <v>0.01129866380656529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04534151695447132</v>
+        <v>-0.05729073957859219</v>
       </c>
       <c r="C7">
-        <v>0.03313134082884028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02346996088041563</v>
+      </c>
+      <c r="D7">
+        <v>0.0370256235965617</v>
+      </c>
+      <c r="E7">
+        <v>0.02053860566806138</v>
+      </c>
+      <c r="F7">
+        <v>-0.03269145937793332</v>
+      </c>
+      <c r="G7">
+        <v>-0.04364553965073494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03323396862590254</v>
+        <v>-0.03648580516484502</v>
       </c>
       <c r="C8">
-        <v>0.02775499731662019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01586319579561583</v>
+      </c>
+      <c r="D8">
+        <v>0.03725807517474555</v>
+      </c>
+      <c r="E8">
+        <v>0.007058811251768349</v>
+      </c>
+      <c r="F8">
+        <v>-0.05449195105912783</v>
+      </c>
+      <c r="G8">
+        <v>0.0323561428326086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06259151361421295</v>
+        <v>-0.07263116306531134</v>
       </c>
       <c r="C9">
-        <v>0.04850318397488516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02845711357212331</v>
+      </c>
+      <c r="D9">
+        <v>0.06807854052194086</v>
+      </c>
+      <c r="E9">
+        <v>0.01625905027561137</v>
+      </c>
+      <c r="F9">
+        <v>-0.03980388360894942</v>
+      </c>
+      <c r="G9">
+        <v>-0.002934265020052512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02673062378153034</v>
+        <v>-0.03979960327042789</v>
       </c>
       <c r="C10">
-        <v>0.03865490842337032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04138087307909982</v>
+      </c>
+      <c r="D10">
+        <v>-0.1819774688667839</v>
+      </c>
+      <c r="E10">
+        <v>0.04822478642143951</v>
+      </c>
+      <c r="F10">
+        <v>-0.03184498081887086</v>
+      </c>
+      <c r="G10">
+        <v>-0.04415501399925512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06703888358315205</v>
+        <v>-0.07580458651782035</v>
       </c>
       <c r="C11">
-        <v>0.05212802325232119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02883504965220405</v>
+      </c>
+      <c r="D11">
+        <v>0.06727463124003788</v>
+      </c>
+      <c r="E11">
+        <v>-0.01017113094657758</v>
+      </c>
+      <c r="F11">
+        <v>-0.03502077336223144</v>
+      </c>
+      <c r="G11">
+        <v>-0.01743815886955475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05198314275238207</v>
+        <v>-0.06346726291763174</v>
       </c>
       <c r="C12">
-        <v>0.05239372851484619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03489560640528412</v>
+      </c>
+      <c r="D12">
+        <v>0.05140759179889254</v>
+      </c>
+      <c r="E12">
+        <v>0.01000859955120328</v>
+      </c>
+      <c r="F12">
+        <v>-0.02940099771984123</v>
+      </c>
+      <c r="G12">
+        <v>-0.01940938703610728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.05775854217748678</v>
+        <v>-0.06419001328667243</v>
       </c>
       <c r="C13">
-        <v>0.05342427026709878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03089675685605914</v>
+      </c>
+      <c r="D13">
+        <v>0.04906383577463647</v>
+      </c>
+      <c r="E13">
+        <v>0.005163480529031317</v>
+      </c>
+      <c r="F13">
+        <v>-0.01855249802161065</v>
+      </c>
+      <c r="G13">
+        <v>-0.002096991420313521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03100441653720946</v>
+        <v>-0.03899263628602255</v>
       </c>
       <c r="C14">
-        <v>0.02812148015988176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02061987555136595</v>
+      </c>
+      <c r="D14">
+        <v>0.009512469558761774</v>
+      </c>
+      <c r="E14">
+        <v>0.01397365616586002</v>
+      </c>
+      <c r="F14">
+        <v>-0.01295738882443626</v>
+      </c>
+      <c r="G14">
+        <v>0.001036808528170283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03942040268782351</v>
+        <v>-0.04130450343395044</v>
       </c>
       <c r="C15">
-        <v>0.01342048045214896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.00200787956155494</v>
+      </c>
+      <c r="D15">
+        <v>0.01609038104096467</v>
+      </c>
+      <c r="E15">
+        <v>0.03821898548434127</v>
+      </c>
+      <c r="F15">
+        <v>0.0004892311906728468</v>
+      </c>
+      <c r="G15">
+        <v>0.02067580176086293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05653431962711822</v>
+        <v>-0.0640886219785889</v>
       </c>
       <c r="C16">
-        <v>0.04640262409000126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02724179796213994</v>
+      </c>
+      <c r="D16">
+        <v>0.0602698713465955</v>
+      </c>
+      <c r="E16">
+        <v>0.001001531017989306</v>
+      </c>
+      <c r="F16">
+        <v>-0.03118096089549896</v>
+      </c>
+      <c r="G16">
+        <v>-0.006801546720183321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06081289119372174</v>
+        <v>-0.06218891552442128</v>
       </c>
       <c r="C20">
-        <v>0.03847527956547092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01649471321952</v>
+      </c>
+      <c r="D20">
+        <v>0.04882705844887849</v>
+      </c>
+      <c r="E20">
+        <v>0.01562969404237017</v>
+      </c>
+      <c r="F20">
+        <v>-0.02678659336357848</v>
+      </c>
+      <c r="G20">
+        <v>-0.01879978190720667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02523880314576686</v>
+        <v>-0.0242332111526456</v>
       </c>
       <c r="C21">
-        <v>0.00133566505521718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008606257520234183</v>
+      </c>
+      <c r="D21">
+        <v>0.02999274841949858</v>
+      </c>
+      <c r="E21">
+        <v>0.08676576844939991</v>
+      </c>
+      <c r="F21">
+        <v>0.003263528172578046</v>
+      </c>
+      <c r="G21">
+        <v>0.013165942904433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06697174158939107</v>
+        <v>-0.06478834803512354</v>
       </c>
       <c r="C22">
-        <v>0.07264985564541043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04253879331635251</v>
+      </c>
+      <c r="D22">
+        <v>0.1055769347927299</v>
+      </c>
+      <c r="E22">
+        <v>0.6071902329130144</v>
+      </c>
+      <c r="F22">
+        <v>0.1508347387580035</v>
+      </c>
+      <c r="G22">
+        <v>-0.04057705538347895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.06813450999786362</v>
+        <v>-0.06531522600146884</v>
       </c>
       <c r="C23">
-        <v>0.07244101012906547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0417614343649603</v>
+      </c>
+      <c r="D23">
+        <v>0.106375343652633</v>
+      </c>
+      <c r="E23">
+        <v>0.6061761332878428</v>
+      </c>
+      <c r="F23">
+        <v>0.1505107614796226</v>
+      </c>
+      <c r="G23">
+        <v>-0.03832564862742118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0647931677263132</v>
+        <v>-0.07553298091112183</v>
       </c>
       <c r="C24">
-        <v>0.05447538434411545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03211093081344685</v>
+      </c>
+      <c r="D24">
+        <v>0.06470599600135346</v>
+      </c>
+      <c r="E24">
+        <v>0.008205764939053775</v>
+      </c>
+      <c r="F24">
+        <v>-0.04263795501881216</v>
+      </c>
+      <c r="G24">
+        <v>-0.007121357381136673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06436276800764594</v>
+        <v>-0.07379073890321258</v>
       </c>
       <c r="C25">
-        <v>0.05879678577980436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03644864998853296</v>
+      </c>
+      <c r="D25">
+        <v>0.06297403813619309</v>
+      </c>
+      <c r="E25">
+        <v>0.01084372218954642</v>
+      </c>
+      <c r="F25">
+        <v>-0.03921541497779284</v>
+      </c>
+      <c r="G25">
+        <v>0.003280284875964186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03780888557409395</v>
+        <v>-0.04159963637198492</v>
       </c>
       <c r="C26">
-        <v>0.01502104495458053</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005043389847906024</v>
+      </c>
+      <c r="D26">
+        <v>0.02285656198287138</v>
+      </c>
+      <c r="E26">
+        <v>0.03544620644852558</v>
+      </c>
+      <c r="F26">
+        <v>-0.02017005667375235</v>
+      </c>
+      <c r="G26">
+        <v>-0.01635290227675901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0507913949732974</v>
+        <v>-0.07340898579987212</v>
       </c>
       <c r="C28">
-        <v>0.07465199231860924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07613528070036339</v>
+      </c>
+      <c r="D28">
+        <v>-0.3239613878024877</v>
+      </c>
+      <c r="E28">
+        <v>0.0415198595046963</v>
+      </c>
+      <c r="F28">
+        <v>-0.04395988404656119</v>
+      </c>
+      <c r="G28">
+        <v>0.0239476579115575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03530273273447636</v>
+        <v>-0.04411413754194178</v>
       </c>
       <c r="C29">
-        <v>0.03175922892190452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02392197009537381</v>
+      </c>
+      <c r="D29">
+        <v>0.01027874789760103</v>
+      </c>
+      <c r="E29">
+        <v>0.03788427109762725</v>
+      </c>
+      <c r="F29">
+        <v>-0.009950960422949115</v>
+      </c>
+      <c r="G29">
+        <v>-0.01802740952025121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1154355499935769</v>
+        <v>-0.1336358937394609</v>
       </c>
       <c r="C30">
-        <v>0.1034030329483182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06488295651064425</v>
+      </c>
+      <c r="D30">
+        <v>0.09522338212237018</v>
+      </c>
+      <c r="E30">
+        <v>0.04482995448465225</v>
+      </c>
+      <c r="F30">
+        <v>-0.02825711508496123</v>
+      </c>
+      <c r="G30">
+        <v>0.01151319853680688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03779399470538909</v>
+        <v>-0.04421966918223514</v>
       </c>
       <c r="C31">
-        <v>0.02324591284118108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01283340903343961</v>
+      </c>
+      <c r="D31">
+        <v>0.02880139406536806</v>
+      </c>
+      <c r="E31">
+        <v>0.02017385061059727</v>
+      </c>
+      <c r="F31">
+        <v>-0.01096185674502792</v>
+      </c>
+      <c r="G31">
+        <v>-0.02302561556187541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03286715659231384</v>
+        <v>-0.03254134650468922</v>
       </c>
       <c r="C32">
-        <v>0.0224286138349898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01190204834258814</v>
+      </c>
+      <c r="D32">
+        <v>0.0138170344504554</v>
+      </c>
+      <c r="E32">
+        <v>0.06386345602139491</v>
+      </c>
+      <c r="F32">
+        <v>0.004541975112337658</v>
+      </c>
+      <c r="G32">
+        <v>0.03107042268019444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0738432013200047</v>
+        <v>-0.08820744258789627</v>
       </c>
       <c r="C33">
-        <v>0.05451543340028617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.0327035363581746</v>
+      </c>
+      <c r="D33">
+        <v>0.06124275805972351</v>
+      </c>
+      <c r="E33">
+        <v>0.01192554445011304</v>
+      </c>
+      <c r="F33">
+        <v>-0.008463298832763724</v>
+      </c>
+      <c r="G33">
+        <v>-0.01291133464108999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05044025764575757</v>
+        <v>-0.05784066745166044</v>
       </c>
       <c r="C34">
-        <v>0.03438291087777455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01715858838811133</v>
+      </c>
+      <c r="D34">
+        <v>0.06026003539428983</v>
+      </c>
+      <c r="E34">
+        <v>0.001370730095630751</v>
+      </c>
+      <c r="F34">
+        <v>-0.02480448680279483</v>
+      </c>
+      <c r="G34">
+        <v>-0.0011350944965525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03600012148276946</v>
+        <v>-0.04015411835181012</v>
       </c>
       <c r="C35">
-        <v>0.01232629356710508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003733457317831159</v>
+      </c>
+      <c r="D35">
+        <v>0.01206142353917333</v>
+      </c>
+      <c r="E35">
+        <v>0.02217199774524882</v>
+      </c>
+      <c r="F35">
+        <v>0.002718653515729408</v>
+      </c>
+      <c r="G35">
+        <v>-0.01298042897811685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01775945468595569</v>
+        <v>-0.025038988640752</v>
       </c>
       <c r="C36">
-        <v>0.0171912633149589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01216226635822699</v>
+      </c>
+      <c r="D36">
+        <v>0.02042766410632772</v>
+      </c>
+      <c r="E36">
+        <v>0.03608910763534467</v>
+      </c>
+      <c r="F36">
+        <v>-0.01899748044077331</v>
+      </c>
+      <c r="G36">
+        <v>-0.0147887101229185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03784962398428236</v>
+        <v>-0.04024565321794626</v>
       </c>
       <c r="C38">
-        <v>0.01096020191359217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.001806755857335213</v>
+      </c>
+      <c r="D38">
+        <v>0.01282801534583262</v>
+      </c>
+      <c r="E38">
+        <v>0.05910005585582857</v>
+      </c>
+      <c r="F38">
+        <v>0.02369232120289255</v>
+      </c>
+      <c r="G38">
+        <v>0.01518143472708976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08704931677484264</v>
+        <v>-0.1024001158097449</v>
       </c>
       <c r="C39">
-        <v>0.08673911735583033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05566216794383346</v>
+      </c>
+      <c r="D39">
+        <v>0.08515903723145264</v>
+      </c>
+      <c r="E39">
+        <v>-0.01132898228090913</v>
+      </c>
+      <c r="F39">
+        <v>-0.022420966402594</v>
+      </c>
+      <c r="G39">
+        <v>0.02398654345945056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0644282409165113</v>
+        <v>-0.07165938254894622</v>
       </c>
       <c r="C40">
-        <v>0.0568432521560613</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03462921330077947</v>
+      </c>
+      <c r="D40">
+        <v>0.01153551974853975</v>
+      </c>
+      <c r="E40">
+        <v>0.02685580464462154</v>
+      </c>
+      <c r="F40">
+        <v>0.04568657426755961</v>
+      </c>
+      <c r="G40">
+        <v>0.0580827710208804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0391206439032975</v>
+        <v>-0.0437585735485414</v>
       </c>
       <c r="C41">
-        <v>0.01674406233168784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006461127297136967</v>
+      </c>
+      <c r="D41">
+        <v>0.04081625101580464</v>
+      </c>
+      <c r="E41">
+        <v>0.006175358544264448</v>
+      </c>
+      <c r="F41">
+        <v>0.006406628031405671</v>
+      </c>
+      <c r="G41">
+        <v>0.01089688779619692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04314720976804819</v>
+        <v>-0.05283222679214707</v>
       </c>
       <c r="C43">
-        <v>0.035508142523169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02112039450205195</v>
+      </c>
+      <c r="D43">
+        <v>0.02951906499799812</v>
+      </c>
+      <c r="E43">
+        <v>0.01703413938985524</v>
+      </c>
+      <c r="F43">
+        <v>-0.01497094136629249</v>
+      </c>
+      <c r="G43">
+        <v>-0.01051295415208448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.09030270914393225</v>
+        <v>-0.09347101785594034</v>
       </c>
       <c r="C44">
-        <v>0.09688639979334965</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06085562931863597</v>
+      </c>
+      <c r="D44">
+        <v>0.05516282196570783</v>
+      </c>
+      <c r="E44">
+        <v>0.103980212004581</v>
+      </c>
+      <c r="F44">
+        <v>-0.06916774574916321</v>
+      </c>
+      <c r="G44">
+        <v>0.01815288508018257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0261342835026818</v>
+        <v>-0.02777061101099128</v>
       </c>
       <c r="C46">
-        <v>0.01827260498074975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009309262941533227</v>
+      </c>
+      <c r="D46">
+        <v>0.03390465958336007</v>
+      </c>
+      <c r="E46">
+        <v>0.01708251542400318</v>
+      </c>
+      <c r="F46">
+        <v>-0.01680339375065023</v>
+      </c>
+      <c r="G46">
+        <v>0.002539369941189216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02666644165191519</v>
+        <v>-0.03012141391034825</v>
       </c>
       <c r="C47">
-        <v>0.02133758426363546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01328659722161244</v>
+      </c>
+      <c r="D47">
+        <v>0.01600594282048722</v>
+      </c>
+      <c r="E47">
+        <v>0.04927859443723556</v>
+      </c>
+      <c r="F47">
+        <v>-0.01195145617560391</v>
+      </c>
+      <c r="G47">
+        <v>-0.02908742862622096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02798984928767018</v>
+        <v>-0.03256334204355082</v>
       </c>
       <c r="C48">
-        <v>0.02021901241742224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01130832856451348</v>
+      </c>
+      <c r="D48">
+        <v>0.03246898222975863</v>
+      </c>
+      <c r="E48">
+        <v>0.04133935330383697</v>
+      </c>
+      <c r="F48">
+        <v>-0.01666729967197993</v>
+      </c>
+      <c r="G48">
+        <v>-0.0003604765528651635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1492599700326792</v>
+        <v>-0.177671745669377</v>
       </c>
       <c r="C49">
-        <v>0.09216305576483103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05151377620102912</v>
+      </c>
+      <c r="D49">
+        <v>0.01298557016956475</v>
+      </c>
+      <c r="E49">
+        <v>-0.1340279561463869</v>
+      </c>
+      <c r="F49">
+        <v>-0.02545040744239687</v>
+      </c>
+      <c r="G49">
+        <v>-0.05793491532903182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03313740828733268</v>
+        <v>-0.04244532785211119</v>
       </c>
       <c r="C50">
-        <v>0.02758596861450233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02043710946227184</v>
+      </c>
+      <c r="D50">
+        <v>0.03633244273602277</v>
+      </c>
+      <c r="E50">
+        <v>0.0448632720507938</v>
+      </c>
+      <c r="F50">
+        <v>-0.02456294444086997</v>
+      </c>
+      <c r="G50">
+        <v>-0.02470372787768426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02500768369490367</v>
+        <v>-0.02761057641736899</v>
       </c>
       <c r="C51">
-        <v>0.0140833009950172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.007320193111977428</v>
+      </c>
+      <c r="D51">
+        <v>0.02657424616225865</v>
+      </c>
+      <c r="E51">
+        <v>0.01488948770108354</v>
+      </c>
+      <c r="F51">
+        <v>-0.008584031278839565</v>
+      </c>
+      <c r="G51">
+        <v>0.007165422132880527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1372558840573002</v>
+        <v>-0.1584832645879807</v>
       </c>
       <c r="C53">
-        <v>0.1007058448975013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.0651977934426015</v>
+      </c>
+      <c r="D53">
+        <v>0.02215525867748328</v>
+      </c>
+      <c r="E53">
+        <v>-0.04023472496463535</v>
+      </c>
+      <c r="F53">
+        <v>-0.01880319094497704</v>
+      </c>
+      <c r="G53">
+        <v>0.002192019630028838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0515059558914295</v>
+        <v>-0.05508081634328542</v>
       </c>
       <c r="C54">
-        <v>0.02877213513706049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01156255050238018</v>
+      </c>
+      <c r="D54">
+        <v>0.03504614604444468</v>
+      </c>
+      <c r="E54">
+        <v>0.04396656568623782</v>
+      </c>
+      <c r="F54">
+        <v>-0.0139108505144461</v>
+      </c>
+      <c r="G54">
+        <v>0.00151343039853217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09130506862532123</v>
+        <v>-0.09950426988322043</v>
       </c>
       <c r="C55">
-        <v>0.06561718173245272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04056234249153265</v>
+      </c>
+      <c r="D55">
+        <v>0.03218554079378006</v>
+      </c>
+      <c r="E55">
+        <v>0.006817885410466115</v>
+      </c>
+      <c r="F55">
+        <v>-0.01869279033596031</v>
+      </c>
+      <c r="G55">
+        <v>0.008469032688045355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1359140625222483</v>
+        <v>-0.1576172042377124</v>
       </c>
       <c r="C56">
-        <v>0.1110384161367243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07355088244074895</v>
+      </c>
+      <c r="D56">
+        <v>0.01937347820219571</v>
+      </c>
+      <c r="E56">
+        <v>-0.03939313541842645</v>
+      </c>
+      <c r="F56">
+        <v>-0.04982992419021227</v>
+      </c>
+      <c r="G56">
+        <v>-0.0140235355347637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1131612048436248</v>
+        <v>-0.1023418823170474</v>
       </c>
       <c r="C58">
-        <v>0.02983812951305156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.009159975253042438</v>
+      </c>
+      <c r="D58">
+        <v>0.05445110842514398</v>
+      </c>
+      <c r="E58">
+        <v>0.1847028052433177</v>
+      </c>
+      <c r="F58">
+        <v>-0.03596609257975562</v>
+      </c>
+      <c r="G58">
+        <v>-0.04888341826740443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1045368746197877</v>
+        <v>-0.1462950970878052</v>
       </c>
       <c r="C59">
-        <v>0.0869438251811686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08606536706591504</v>
+      </c>
+      <c r="D59">
+        <v>-0.352224322529016</v>
+      </c>
+      <c r="E59">
+        <v>0.04675614368780844</v>
+      </c>
+      <c r="F59">
+        <v>0.02601768955702065</v>
+      </c>
+      <c r="G59">
+        <v>-0.02924603953088017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1836740670718774</v>
+        <v>-0.217858069533539</v>
       </c>
       <c r="C60">
-        <v>0.1210349240050607</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07677714784353655</v>
+      </c>
+      <c r="D60">
+        <v>0.01525326548994759</v>
+      </c>
+      <c r="E60">
+        <v>-0.07164962162410071</v>
+      </c>
+      <c r="F60">
+        <v>-0.0407666176513756</v>
+      </c>
+      <c r="G60">
+        <v>0.02613387062211426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07483237857323959</v>
+        <v>-0.08665355389409186</v>
       </c>
       <c r="C61">
-        <v>0.06377753662371727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03989146621004803</v>
+      </c>
+      <c r="D61">
+        <v>0.06481003836658991</v>
+      </c>
+      <c r="E61">
+        <v>-0.01859928398547267</v>
+      </c>
+      <c r="F61">
+        <v>-0.01044282888693783</v>
+      </c>
+      <c r="G61">
+        <v>-0.01704328567540704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1162704126945704</v>
+        <v>-0.1386225546750241</v>
       </c>
       <c r="C62">
-        <v>0.08501399156532967</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0553440421615155</v>
+      </c>
+      <c r="D62">
+        <v>0.02387409432133827</v>
+      </c>
+      <c r="E62">
+        <v>-0.05481925016745573</v>
+      </c>
+      <c r="F62">
+        <v>-0.02139593622735379</v>
+      </c>
+      <c r="G62">
+        <v>0.0308825546127652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.05041426080038774</v>
+        <v>-0.05187490607391989</v>
       </c>
       <c r="C63">
-        <v>0.03213081972491178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.0160775046205076</v>
+      </c>
+      <c r="D63">
+        <v>0.0320447237677044</v>
+      </c>
+      <c r="E63">
+        <v>0.04779880315948745</v>
+      </c>
+      <c r="F63">
+        <v>-0.00974518972805608</v>
+      </c>
+      <c r="G63">
+        <v>0.02553686771634243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1076156388132683</v>
+        <v>-0.1133700781162756</v>
       </c>
       <c r="C64">
-        <v>0.04686006618296489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01470815730473693</v>
+      </c>
+      <c r="D64">
+        <v>0.04536431200494337</v>
+      </c>
+      <c r="E64">
+        <v>0.02976551454706793</v>
+      </c>
+      <c r="F64">
+        <v>-0.05848312578205538</v>
+      </c>
+      <c r="G64">
+        <v>0.02301431460674812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1091289618587012</v>
+        <v>-0.1238806368726894</v>
       </c>
       <c r="C65">
-        <v>0.06903928980371273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0402826197324708</v>
+      </c>
+      <c r="D65">
+        <v>0.008856997711296125</v>
+      </c>
+      <c r="E65">
+        <v>0.003964999241490442</v>
+      </c>
+      <c r="F65">
+        <v>-0.06080715876611995</v>
+      </c>
+      <c r="G65">
+        <v>0.02699009745885168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1332654129877544</v>
+        <v>-0.1530877860181421</v>
       </c>
       <c r="C66">
-        <v>0.09714754326441664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05499993583083923</v>
+      </c>
+      <c r="D66">
+        <v>0.1182386320777746</v>
+      </c>
+      <c r="E66">
+        <v>-0.05499364386095228</v>
+      </c>
+      <c r="F66">
+        <v>-0.04800895898607001</v>
+      </c>
+      <c r="G66">
+        <v>0.0228438053464617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06960876931526522</v>
+        <v>-0.07520438503814471</v>
       </c>
       <c r="C67">
-        <v>0.02394707072352097</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006906667397322441</v>
+      </c>
+      <c r="D67">
+        <v>0.02489053682430513</v>
+      </c>
+      <c r="E67">
+        <v>0.02508356111507834</v>
+      </c>
+      <c r="F67">
+        <v>0.001878724940248346</v>
+      </c>
+      <c r="G67">
+        <v>-0.004685393390315766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05114397980351498</v>
+        <v>-0.06674972887714614</v>
       </c>
       <c r="C68">
-        <v>0.0480877984813441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04980900081529949</v>
+      </c>
+      <c r="D68">
+        <v>-0.2667206369473484</v>
+      </c>
+      <c r="E68">
+        <v>0.05009745425634781</v>
+      </c>
+      <c r="F68">
+        <v>-0.006138259386112994</v>
+      </c>
+      <c r="G68">
+        <v>-0.009415988818350927</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04928210288463016</v>
+        <v>-0.05115872706537429</v>
       </c>
       <c r="C69">
-        <v>0.02586133615174746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.00963681440612763</v>
+      </c>
+      <c r="D69">
+        <v>0.03414312503243225</v>
+      </c>
+      <c r="E69">
+        <v>0.02039570453883636</v>
+      </c>
+      <c r="F69">
+        <v>0.001018358339000073</v>
+      </c>
+      <c r="G69">
+        <v>-0.008814171840500408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.004793739245374307</v>
+        <v>-0.01653632390386</v>
       </c>
       <c r="C70">
-        <v>-0.002747115404480771</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0003634999648981499</v>
+      </c>
+      <c r="D70">
+        <v>-0.00654910913949592</v>
+      </c>
+      <c r="E70">
+        <v>-0.02153999111983159</v>
+      </c>
+      <c r="F70">
+        <v>-0.01559222996745184</v>
+      </c>
+      <c r="G70">
+        <v>-0.01767094322080272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05494017744062588</v>
+        <v>-0.0714553929399276</v>
       </c>
       <c r="C71">
-        <v>0.04741384456598194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04928120789177105</v>
+      </c>
+      <c r="D71">
+        <v>-0.2996523198454297</v>
+      </c>
+      <c r="E71">
+        <v>0.0484966261990904</v>
+      </c>
+      <c r="F71">
+        <v>-0.02923678202842959</v>
+      </c>
+      <c r="G71">
+        <v>-0.007076973809518396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1314127968573721</v>
+        <v>-0.1543550436093288</v>
       </c>
       <c r="C72">
-        <v>0.07888176681938679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04543684482333143</v>
+      </c>
+      <c r="D72">
+        <v>0.008001585792817583</v>
+      </c>
+      <c r="E72">
+        <v>-0.093822288485674</v>
+      </c>
+      <c r="F72">
+        <v>0.1534328499553858</v>
+      </c>
+      <c r="G72">
+        <v>0.1257556176106141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2434799744690514</v>
+        <v>-0.2739195243067343</v>
       </c>
       <c r="C73">
-        <v>0.1441046398211923</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0758575175975843</v>
+      </c>
+      <c r="D73">
+        <v>0.07012585229613635</v>
+      </c>
+      <c r="E73">
+        <v>-0.1937181113434439</v>
+      </c>
+      <c r="F73">
+        <v>-0.07266489434545728</v>
+      </c>
+      <c r="G73">
+        <v>-0.2013258241368125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07291725242436443</v>
+        <v>-0.08968199198042159</v>
       </c>
       <c r="C74">
-        <v>0.08513140199239032</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06367099660546664</v>
+      </c>
+      <c r="D74">
+        <v>0.03552833908826443</v>
+      </c>
+      <c r="E74">
+        <v>-0.006654708470392936</v>
+      </c>
+      <c r="F74">
+        <v>0.008994231245799005</v>
+      </c>
+      <c r="G74">
+        <v>-0.02624406076952665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09455777674915392</v>
+        <v>-0.1045925374219053</v>
       </c>
       <c r="C75">
-        <v>0.06733201781040739</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03508001162244222</v>
+      </c>
+      <c r="D75">
+        <v>0.01533553932144964</v>
+      </c>
+      <c r="E75">
+        <v>0.003388581407777964</v>
+      </c>
+      <c r="F75">
+        <v>-0.05557601240523687</v>
+      </c>
+      <c r="G75">
+        <v>-0.01473497122211743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1147769710440991</v>
+        <v>-0.1327267308230664</v>
       </c>
       <c r="C76">
-        <v>0.100412119282247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06673383648882837</v>
+      </c>
+      <c r="D76">
+        <v>0.05800438770529836</v>
+      </c>
+      <c r="E76">
+        <v>0.01065993301050267</v>
+      </c>
+      <c r="F76">
+        <v>-0.06138967896483057</v>
+      </c>
+      <c r="G76">
+        <v>0.005656433562509917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.1139848813533604</v>
+        <v>-0.1160739190508406</v>
       </c>
       <c r="C77">
-        <v>0.06338133990410309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02486973038787398</v>
+      </c>
+      <c r="D77">
+        <v>0.01522488450198108</v>
+      </c>
+      <c r="E77">
+        <v>0.02005563254445944</v>
+      </c>
+      <c r="F77">
+        <v>-0.2571452303893464</v>
+      </c>
+      <c r="G77">
+        <v>0.8677808523337965</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08553094609540075</v>
+        <v>-0.1065313563820119</v>
       </c>
       <c r="C78">
-        <v>0.05148963467804547</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03014295264841765</v>
+      </c>
+      <c r="D78">
+        <v>0.06889616678683924</v>
+      </c>
+      <c r="E78">
+        <v>0.06177835010584933</v>
+      </c>
+      <c r="F78">
+        <v>-0.004391900166211154</v>
+      </c>
+      <c r="G78">
+        <v>0.02752237421495817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1333587242602368</v>
+        <v>-0.1504705906665138</v>
       </c>
       <c r="C79">
-        <v>0.1053727431129428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06315715599012919</v>
+      </c>
+      <c r="D79">
+        <v>0.02769956045572426</v>
+      </c>
+      <c r="E79">
+        <v>-0.02524088834600328</v>
+      </c>
+      <c r="F79">
+        <v>-0.03214965829880839</v>
+      </c>
+      <c r="G79">
+        <v>-0.01428924072824071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03927397785843281</v>
+        <v>-0.037923417295268</v>
       </c>
       <c r="C80">
-        <v>0.02044279032090972</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006962435406467238</v>
+      </c>
+      <c r="D80">
+        <v>0.02800926974441201</v>
+      </c>
+      <c r="E80">
+        <v>-0.00435715852232932</v>
+      </c>
+      <c r="F80">
+        <v>0.02475423812561556</v>
+      </c>
+      <c r="G80">
+        <v>-0.03225397787126023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1076911798244681</v>
+        <v>-0.1200987544746351</v>
       </c>
       <c r="C81">
-        <v>0.08018202058494295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.04677699422856391</v>
+      </c>
+      <c r="D81">
+        <v>0.03225138297403551</v>
+      </c>
+      <c r="E81">
+        <v>-0.006430858283590514</v>
+      </c>
+      <c r="F81">
+        <v>-0.0289652531932901</v>
+      </c>
+      <c r="G81">
+        <v>-0.05369365581025456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1159292741696553</v>
+        <v>-0.1271133698505409</v>
       </c>
       <c r="C82">
-        <v>0.09285355298493413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05736662096920865</v>
+      </c>
+      <c r="D82">
+        <v>0.0360002507559621</v>
+      </c>
+      <c r="E82">
+        <v>-0.02469758354611842</v>
+      </c>
+      <c r="F82">
+        <v>-0.05299944390031058</v>
+      </c>
+      <c r="G82">
+        <v>-0.03821034415226492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07303905991455203</v>
+        <v>-0.07484028076796682</v>
       </c>
       <c r="C83">
-        <v>0.0231090731567656</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.002161597688477524</v>
+      </c>
+      <c r="D83">
+        <v>0.04458800134194534</v>
+      </c>
+      <c r="E83">
+        <v>0.009741268045345194</v>
+      </c>
+      <c r="F83">
+        <v>-0.008321611300817823</v>
+      </c>
+      <c r="G83">
+        <v>-0.07774161544412014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02328973151782906</v>
+        <v>-0.03289509566986284</v>
       </c>
       <c r="C84">
-        <v>0.02114233578104604</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01740641756459452</v>
+      </c>
+      <c r="D84">
+        <v>0.02365316113169692</v>
+      </c>
+      <c r="E84">
+        <v>0.01364850864014292</v>
+      </c>
+      <c r="F84">
+        <v>0.04942526500648808</v>
+      </c>
+      <c r="G84">
+        <v>-0.05678790888098115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1133011114563969</v>
+        <v>-0.1179104349112362</v>
       </c>
       <c r="C85">
-        <v>0.07919328042741394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0405634940173402</v>
+      </c>
+      <c r="D85">
+        <v>0.03271227270855455</v>
+      </c>
+      <c r="E85">
+        <v>0.007608259557026458</v>
+      </c>
+      <c r="F85">
+        <v>-0.07595875322651766</v>
+      </c>
+      <c r="G85">
+        <v>-0.01355742606796168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04387381302100589</v>
+        <v>-0.04671195939868607</v>
       </c>
       <c r="C86">
-        <v>0.02203233891433708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.008023970921564446</v>
+      </c>
+      <c r="D86">
+        <v>0.01550931818225569</v>
+      </c>
+      <c r="E86">
+        <v>0.04900315420893272</v>
+      </c>
+      <c r="F86">
+        <v>-0.00564004523547594</v>
+      </c>
+      <c r="G86">
+        <v>-0.01788568468596161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1154483220124226</v>
+        <v>-0.122484828371235</v>
       </c>
       <c r="C87">
-        <v>0.08670879744929295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04446095168825991</v>
+      </c>
+      <c r="D87">
+        <v>0.07111716384519064</v>
+      </c>
+      <c r="E87">
+        <v>0.02302072800401146</v>
+      </c>
+      <c r="F87">
+        <v>-0.03607296496826399</v>
+      </c>
+      <c r="G87">
+        <v>0.1077327226068729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05281656853292455</v>
+        <v>-0.05917640931106549</v>
       </c>
       <c r="C88">
-        <v>0.04143306101164806</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02456817695700919</v>
+      </c>
+      <c r="D88">
+        <v>0.02539623805070331</v>
+      </c>
+      <c r="E88">
+        <v>0.02258638531897962</v>
+      </c>
+      <c r="F88">
+        <v>-0.01043536838304016</v>
+      </c>
+      <c r="G88">
+        <v>0.01483274816607149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07350455670379605</v>
+        <v>-0.1054867015005571</v>
       </c>
       <c r="C89">
-        <v>0.07471090230181367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07800225170028625</v>
+      </c>
+      <c r="D89">
+        <v>-0.3302242352969361</v>
+      </c>
+      <c r="E89">
+        <v>0.08155371343094264</v>
+      </c>
+      <c r="F89">
+        <v>-0.05818613859059275</v>
+      </c>
+      <c r="G89">
+        <v>-0.02444462356340031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06497619732217398</v>
+        <v>-0.08620038375394033</v>
       </c>
       <c r="C90">
-        <v>0.06473815430190528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06359370083601126</v>
+      </c>
+      <c r="D90">
+        <v>-0.3076698146432097</v>
+      </c>
+      <c r="E90">
+        <v>0.06485565280425074</v>
+      </c>
+      <c r="F90">
+        <v>0.02170413593389152</v>
+      </c>
+      <c r="G90">
+        <v>-0.01353413940500226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07560087987584933</v>
+        <v>-0.0875220420229558</v>
       </c>
       <c r="C91">
-        <v>0.06734392488305886</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0439003351282734</v>
+      </c>
+      <c r="D91">
+        <v>0.02878715728822743</v>
+      </c>
+      <c r="E91">
+        <v>0.01090162718642993</v>
+      </c>
+      <c r="F91">
+        <v>-0.007419797919607656</v>
+      </c>
+      <c r="G91">
+        <v>-0.03224304962806732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.07918976673878433</v>
+        <v>-0.1024785948776845</v>
       </c>
       <c r="C92">
-        <v>0.07291663783093966</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.0692641780225027</v>
+      </c>
+      <c r="D92">
+        <v>-0.3323659293270275</v>
+      </c>
+      <c r="E92">
+        <v>0.04658482625855524</v>
+      </c>
+      <c r="F92">
+        <v>-0.02173145955456841</v>
+      </c>
+      <c r="G92">
+        <v>-0.007502437824508866</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05874202225405879</v>
+        <v>-0.08382385381687005</v>
       </c>
       <c r="C93">
-        <v>0.06119364132882111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06536319046009491</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019652826863374</v>
+      </c>
+      <c r="E93">
+        <v>0.03843033416039863</v>
+      </c>
+      <c r="F93">
+        <v>-0.0314792992713475</v>
+      </c>
+      <c r="G93">
+        <v>0.002510844672840407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1241063756392691</v>
+        <v>-0.1276020487397039</v>
       </c>
       <c r="C94">
-        <v>0.08004470518153721</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03505544173635529</v>
+      </c>
+      <c r="D94">
+        <v>0.056328727365644</v>
+      </c>
+      <c r="E94">
+        <v>-0.02198478178151033</v>
+      </c>
+      <c r="F94">
+        <v>-0.03482636785651791</v>
+      </c>
+      <c r="G94">
+        <v>-0.03436919018744071</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1123135805472427</v>
+        <v>-0.1198223302575308</v>
       </c>
       <c r="C95">
-        <v>0.05960194055627625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02299613471345216</v>
+      </c>
+      <c r="D95">
+        <v>0.05672726411281706</v>
+      </c>
+      <c r="E95">
+        <v>-0.01028387244978434</v>
+      </c>
+      <c r="F95">
+        <v>-0.03152731703125811</v>
+      </c>
+      <c r="G95">
+        <v>-0.008879119455741191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1976578363670855</v>
+        <v>-0.2214638890713617</v>
       </c>
       <c r="C97">
-        <v>0.07143907091796181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.0296333138353604</v>
+      </c>
+      <c r="D97">
+        <v>-0.01050083966466081</v>
+      </c>
+      <c r="E97">
+        <v>-0.1841619667163135</v>
+      </c>
+      <c r="F97">
+        <v>0.8811267876953029</v>
+      </c>
+      <c r="G97">
+        <v>0.2118399938421514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2332819387579666</v>
+        <v>-0.2642717825378227</v>
       </c>
       <c r="C98">
-        <v>0.1262555706969556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.05993376382770963</v>
+      </c>
+      <c r="D98">
+        <v>0.0495810628974636</v>
+      </c>
+      <c r="E98">
+        <v>-0.1618765926261785</v>
+      </c>
+      <c r="F98">
+        <v>-0.03390880492003345</v>
+      </c>
+      <c r="G98">
+        <v>-0.2860605053214463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5686170957221632</v>
+        <v>-0.3457617328022434</v>
       </c>
       <c r="C99">
-        <v>-0.8120491405588983</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.925713980091477</v>
+      </c>
+      <c r="D99">
+        <v>-0.08381468883345718</v>
+      </c>
+      <c r="E99">
+        <v>0.04702655559619892</v>
+      </c>
+      <c r="F99">
+        <v>-0.03981709608169941</v>
+      </c>
+      <c r="G99">
+        <v>-0.01221638333856733</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03552828995727238</v>
+        <v>-0.04418882660984687</v>
       </c>
       <c r="C101">
-        <v>0.03189999502449728</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02395266451975329</v>
+      </c>
+      <c r="D101">
+        <v>0.01080337293651207</v>
+      </c>
+      <c r="E101">
+        <v>0.03710011776211678</v>
+      </c>
+      <c r="F101">
+        <v>-0.009556622524364435</v>
+      </c>
+      <c r="G101">
+        <v>-0.01824236732352136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
